--- a/data/20y-investment增长率.xlsx
+++ b/data/20y-investment增长率.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,7 @@
         <v>0.1442837257156691</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3646822113760642</v>
+        <v>0.3646822113760639</v>
       </c>
       <c r="E2" t="n">
         <v>0.04329004329004338</v>
@@ -636,7 +636,7 @@
         <v>0.4880270309975026</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2599020901906399</v>
+        <v>0.2599020901906401</v>
       </c>
       <c r="E6" t="n">
         <v>1.873224295477233</v>
@@ -657,7 +657,7 @@
         <v>-0.9582014186670942</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1248386604305165</v>
+        <v>0.1248386604305163</v>
       </c>
     </row>
     <row r="7">
@@ -671,7 +671,7 @@
         <v>0.3614177115213741</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2500039784421484</v>
+        <v>0.2500039784421479</v>
       </c>
       <c r="E7" t="n">
         <v>-0.467502271633973</v>
@@ -706,7 +706,7 @@
         <v>0.1491247153693311</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2232323307337392</v>
+        <v>0.2232323307337389</v>
       </c>
       <c r="E8" t="n">
         <v>0.4063739021329986</v>
@@ -727,7 +727,7 @@
         <v>0.3141436340986663</v>
       </c>
       <c r="K8" t="n">
-        <v>0.207557978946507</v>
+        <v>0.2075579789465072</v>
       </c>
     </row>
     <row r="9">
@@ -741,7 +741,7 @@
         <v>0.1053501785917128</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1198597048737291</v>
+        <v>0.1198597048737293</v>
       </c>
       <c r="E9" t="n">
         <v>0.1980229819427592</v>
@@ -867,7 +867,7 @@
         <v>-0.887980267577176</v>
       </c>
       <c r="K12" t="n">
-        <v>4.127234198735484</v>
+        <v>4.127234198735482</v>
       </c>
     </row>
     <row r="13">
@@ -902,7 +902,7 @@
         <v>30.82771207129482</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4264615309810531</v>
+        <v>0.4264615309810535</v>
       </c>
     </row>
     <row r="14">
@@ -916,7 +916,7 @@
         <v>0.1810794242183749</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03619901483204879</v>
+        <v>0.03619901483204901</v>
       </c>
       <c r="E14" t="n">
         <v>-0.06893838518339201</v>
@@ -973,6 +973,216 @@
       </c>
       <c r="K15" t="n">
         <v>0.1491367578050109</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.06899999999999995</v>
+      </c>
+      <c r="E16" t="n">
+        <v>85.09999999999999</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.215</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03899999999999992</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-0.03400000000000003</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-0.131</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.2249956402952973</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.51544881779927</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.006998813459796249</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.3169999999999999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.1980000017547613</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.198</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03400000000000003</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.0119999999999999</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1040000000000001</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4159999999999999</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.1910008939509322</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.01299999999999901</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.09199998838106294</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.09200000000000008</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01400000000000001</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.05500000000000005</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-0.133</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.5210000000000001</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2021</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.09300046758849967</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.2549999999999997</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.01599997871989522</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.01600000000000001</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01600000000000001</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.06600000000000006</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.01899999999999991</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.1860001128715369</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-0.4120000000000006</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.04200000000000004</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.3290000000000011</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.02000001292060793</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.09099999999999997</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.07499999999999996</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.06099981137184707</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.519999999999997</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.9880000001593146</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.3159999999999996</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.2250000158340779</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.08200000000000007</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-0.119</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.01800000451718264</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1240000000000032</v>
       </c>
     </row>
   </sheetData>

--- a/data/20y-investment增长率.xlsx
+++ b/data/20y-investment增长率.xlsx
@@ -496,7 +496,7 @@
         <v>0.1442837257156691</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3646822113760639</v>
+        <v>0.3646822113760642</v>
       </c>
       <c r="E2" t="n">
         <v>0.04329004329004338</v>
@@ -636,7 +636,7 @@
         <v>0.4880270309975026</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2599020901906401</v>
+        <v>0.2599020901906399</v>
       </c>
       <c r="E6" t="n">
         <v>1.873224295477233</v>
@@ -657,7 +657,7 @@
         <v>-0.9582014186670942</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1248386604305163</v>
+        <v>0.1248386604305165</v>
       </c>
     </row>
     <row r="7">
@@ -671,7 +671,7 @@
         <v>0.3614177115213741</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2500039784421479</v>
+        <v>0.2500039784421484</v>
       </c>
       <c r="E7" t="n">
         <v>-0.467502271633973</v>
@@ -706,7 +706,7 @@
         <v>0.1491247153693311</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2232323307337389</v>
+        <v>0.2232323307337392</v>
       </c>
       <c r="E8" t="n">
         <v>0.4063739021329986</v>
@@ -727,7 +727,7 @@
         <v>0.3141436340986663</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2075579789465072</v>
+        <v>0.207557978946507</v>
       </c>
     </row>
     <row r="9">
@@ -741,7 +741,7 @@
         <v>0.1053501785917128</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1198597048737293</v>
+        <v>0.1198597048737291</v>
       </c>
       <c r="E9" t="n">
         <v>0.1980229819427592</v>
@@ -867,7 +867,7 @@
         <v>-0.887980267577176</v>
       </c>
       <c r="K12" t="n">
-        <v>4.127234198735482</v>
+        <v>4.127234198735484</v>
       </c>
     </row>
     <row r="13">
@@ -902,7 +902,7 @@
         <v>30.82771207129482</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4264615309810535</v>
+        <v>0.4264615309810531</v>
       </c>
     </row>
     <row r="14">
@@ -916,7 +916,7 @@
         <v>0.1810794242183749</v>
       </c>
       <c r="D14" t="n">
-        <v>0.03619901483204901</v>
+        <v>0.03619901483204879</v>
       </c>
       <c r="E14" t="n">
         <v>-0.06893838518339201</v>
@@ -992,7 +992,7 @@
         <v>85.09999999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.215</v>
+        <v>-0.2150000000000001</v>
       </c>
       <c r="G16" t="n">
         <v>0.03899999999999992</v>
@@ -1062,7 +1062,7 @@
         <v>0.09199998838106294</v>
       </c>
       <c r="F18" t="n">
-        <v>0.09200000000000008</v>
+        <v>0.09199999999999986</v>
       </c>
       <c r="G18" t="n">
         <v>0.01400000000000001</v>
@@ -1097,7 +1097,7 @@
         <v>0.01599997871989522</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01600000000000001</v>
+        <v>0.01600000000000046</v>
       </c>
       <c r="G19" t="n">
         <v>0.01600000000000001</v>
@@ -1132,13 +1132,13 @@
         <v>0.02000001292060793</v>
       </c>
       <c r="F20" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.02000000000000424</v>
       </c>
       <c r="G20" t="n">
-        <v>0.09099999999999997</v>
+        <v>0.0909999999999993</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07499999999999996</v>
+        <v>0.07500000000000018</v>
       </c>
       <c r="I20" t="n">
         <v>0.105</v>
@@ -1167,10 +1167,10 @@
         <v>0.2250000158340779</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.4</v>
+        <v>-0.4000000000000025</v>
       </c>
       <c r="G21" t="n">
-        <v>0.105</v>
+        <v>0.1050000000000002</v>
       </c>
       <c r="H21" t="n">
         <v>0.08200000000000007</v>
